--- a/data/Subset1_WithDialogActs/Towers 2_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Towers 2_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -639,12 +639,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1185,12 +1185,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1865,12 +1865,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1907,12 +1907,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3381,12 +3381,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3549,12 +3549,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3969,12 +3969,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4179,12 +4179,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4347,12 +4347,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4599,12 +4599,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4683,12 +4683,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4813,12 +4813,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4897,12 +4897,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
